--- a/PTZ HEAD CONNECTIONS.xlsx
+++ b/PTZ HEAD CONNECTIONS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Montessori Scholengemeenschap Amsterdam\School\Informatica\PTZ-head\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msa2-my.sharepoint.com/personal/22117_edu_msa_nl/Documents/School/Informatica/PTZ-HEAD-V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC472EB-B701-4387-8890-BC3E3EB9F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0DC472EB-B701-4387-8890-BC3E3EB9F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F53A005-AE51-4B89-9687-3267D433E353}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-28800" yWindow="3090" windowWidth="16200" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -265,17 +265,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,33 +564,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1">
@@ -601,11 +602,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+    <row r="7" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -616,8 +617,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+    <row r="8" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -640,11 +641,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1">
@@ -664,8 +665,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
+    <row r="10" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -688,8 +689,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
+    <row r="11" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -712,8 +713,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
+    <row r="12" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -736,8 +737,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
+    <row r="13" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -760,11 +761,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
+    <row r="14" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>13</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1">
@@ -784,11 +785,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16">
+    <row r="15" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1">
@@ -808,11 +809,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
+    <row r="16" spans="2:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1">
@@ -832,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="6:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <v>12</v>
       </c>
@@ -850,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>15</v>
       </c>
